--- a/Sistem Pendukung Keputusan/minggu3/Fany Ervansyah AHP-Jobsheet.xlsx
+++ b/Sistem Pendukung Keputusan/minggu3/Fany Ervansyah AHP-Jobsheet.xlsx
@@ -149,6 +149,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Transportasi adalah </t>
     </r>
     <r>
@@ -170,10 +177,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -208,14 +215,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,15 +235,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,8 +251,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,45 +269,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,16 +284,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,11 +299,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -411,55 +418,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,127 +592,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,11 +702,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,6 +722,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,17 +756,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -750,6 +772,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,44 +799,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -815,130 +822,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1346,8 +1353,8 @@
   <sheetPr/>
   <dimension ref="A2:O191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="C190" sqref="C190"/>
+    <sheetView tabSelected="1" topLeftCell="B170" workbookViewId="0">
+      <selection activeCell="B192" sqref="B192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1458,7 +1465,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="8:12">
+    <row r="8" ht="15.75" spans="8:12">
       <c r="H8" s="4" t="s">
         <v>8</v>
       </c>
@@ -1895,7 +1902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="8:11">
+    <row r="43" ht="15.75" spans="8:11">
       <c r="H43" s="8" t="s">
         <v>34</v>
       </c>
@@ -2928,8 +2935,8 @@
       </c>
       <c r="M159" s="14"/>
       <c r="N159" s="15">
-        <f>(H159*$L$123)+(I159*$L$124)+(J159*$L$125)</f>
-        <v>0.88505343287952</v>
+        <f>(H159*$L$159)+(I159*$L$160)+(J159*$L$161)</f>
+        <v>0.866162511323802</v>
       </c>
     </row>
     <row r="160" spans="8:14">
@@ -2953,8 +2960,8 @@
         <v>19</v>
       </c>
       <c r="N160" s="15">
-        <f>(H160*$L$123)+(I160*$L$124)+(J160*$L$125)</f>
-        <v>2.12428634167765</v>
+        <f>(H160*$L$159)+(I160*$L$160)+(J160*$L$161)</f>
+        <v>2.00831068573004</v>
       </c>
     </row>
     <row r="161" spans="8:14">
@@ -2974,8 +2981,8 @@
       </c>
       <c r="M161" s="14"/>
       <c r="N161" s="15">
-        <f>(H161*$L$123)+(I161*$L$124)+(J161*$L$125)</f>
-        <v>0.22048309178744</v>
+        <f>(H161*$L$159)+(I161*$L$160)+(J161*$L$161)</f>
+        <v>0.222252606584404</v>
       </c>
     </row>
     <row r="165" spans="8:9">
@@ -2984,7 +2991,7 @@
       </c>
       <c r="I165" s="9">
         <f>N159/M154</f>
-        <v>3.12917721868516</v>
+        <v>3.06238685419858</v>
       </c>
     </row>
     <row r="166" spans="8:9">
@@ -2993,7 +3000,7 @@
       </c>
       <c r="I166" s="9">
         <f>N160/M155</f>
-        <v>3.30171447375903</v>
+        <v>3.12145699418427</v>
       </c>
     </row>
     <row r="167" spans="8:9">
@@ -3002,7 +3009,7 @@
       </c>
       <c r="I167" s="9">
         <f>N161/M156</f>
-        <v>2.98870540170385</v>
+        <v>3.01269163297994</v>
       </c>
     </row>
     <row r="170" spans="8:9">
@@ -3011,7 +3018,7 @@
       </c>
       <c r="I170" s="9">
         <f>SUM(I165:I167)/3</f>
-        <v>3.13986569804934</v>
+        <v>3.06551182712093</v>
       </c>
     </row>
     <row r="174" spans="8:9">
@@ -3020,7 +3027,7 @@
       </c>
       <c r="I174" s="9">
         <f>(I170-3)/(3-1)</f>
-        <v>0.0699328490246724</v>
+        <v>0.0327559135604645</v>
       </c>
     </row>
     <row r="178" spans="8:14">
@@ -3029,7 +3036,7 @@
       </c>
       <c r="I178" s="9">
         <f>I174/0.9</f>
-        <v>0.0777031655829694</v>
+        <v>0.0363954595116272</v>
       </c>
       <c r="N178" s="1"/>
     </row>
